--- a/portafolio_proyecto.xlsx
+++ b/portafolio_proyecto.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a95f88fbb8f8c9db/Escritorio/DIPLOMADO CIENCIA DE DATOS/Finanzas en R/finanzas_en_r/Finanzas_en_R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{0A866FD8-95D3-433E-90A3-244EFD0043D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C3471C7-728D-4454-A5CC-076F403CFBA9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A866FD8-95D3-433E-90A3-244EFD0043D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1513BAA8-FC6E-467C-BBC3-CF8165390EA5}"/>
   </bookViews>
   <sheets>
-    <sheet name="PORTAFOLIO" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -218,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -254,6 +254,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -261,6 +274,15 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -272,15 +294,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -298,10 +311,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A5225-0D95-4F22-8F72-A445F95BDD0A}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -635,657 +644,671 @@
     <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
         <v>1.613</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="5">
         <f>156.27</f>
         <v>156.27000000000001</v>
       </c>
-      <c r="E2" s="3">
-        <f t="shared" ref="E2:E36" si="0">C2*D2</f>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E37" si="0">C3*D3</f>
         <v>252.06351000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
         <v>0.35399999999999998</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="5">
         <f>373.52</f>
         <v>373.52</v>
       </c>
-      <c r="E3" s="3">
-        <f>C3*D3</f>
+      <c r="E4" s="6">
+        <f>C4*D4</f>
         <v>132.22608</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
         <v>0.95089999999999997</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="5">
         <f>234.23</f>
         <v>234.23</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>222.72930699999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
         <v>0.11243</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="5">
         <v>736.89</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>82.848542699999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
         <v>0.67712000000000006</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="5">
         <v>100.85</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>68.287552000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
         <v>0.54500000000000004</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="5">
         <v>114.04</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>62.151800000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="4">
         <v>0.89880000000000004</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="5">
         <v>144.87</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>130.20915600000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="4">
         <v>1.1299999999999999</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="5">
         <v>75.22</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>84.998599999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="4">
         <v>3.4860000000000002E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="5">
         <v>1434</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>49.989240000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="4">
         <v>16.559999999999999</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="5">
         <v>2.81</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>46.5336</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="4">
         <v>0.21065</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="5">
         <v>166.15</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>34.999497500000004</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="4">
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="5">
         <v>472.91</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>34.238684000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C15" s="4">
         <v>1.4590000000000001</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="5">
         <v>13.7</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="6">
         <f t="shared" si="0"/>
         <v>19.988299999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C16" s="4">
         <v>0.99</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="5">
         <v>20.190000000000001</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="6">
         <f t="shared" si="0"/>
         <v>19.988099999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="4">
         <v>1.3546</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="5">
         <v>25.15</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="6">
         <f t="shared" si="0"/>
         <v>34.068190000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C18" s="4">
         <v>2.0095999999999998</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="5">
         <v>12.44</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="6">
         <f t="shared" si="0"/>
         <v>24.999423999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="4">
         <v>0.1089</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="5">
         <v>76.739999999999995</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="6">
         <f t="shared" si="0"/>
         <v>8.3569859999999991</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C20" s="4">
         <v>7.7628000000000004</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="5">
         <v>2.09</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>16.224252</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C21" s="4">
         <v>0.6542</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="5">
         <v>275.13</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="6">
         <f t="shared" si="0"/>
         <v>179.99004600000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4">
         <v>5.0599999999999999E-2</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="5">
         <v>173.6</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="6">
         <f t="shared" si="0"/>
         <v>8.78416</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4">
         <v>0.22539999999999999</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="5">
         <v>22.27</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="6">
         <f t="shared" si="0"/>
         <v>5.0196579999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="7">
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4">
         <v>1.2629999999999999</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="5">
         <v>13.06</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="6">
         <f t="shared" si="0"/>
         <v>16.494779999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4">
         <v>6.3512000000000004</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="5">
         <v>2.36</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="6">
         <f t="shared" si="0"/>
         <v>14.988832</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C26" s="4">
         <v>0.1739</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="5">
         <v>146.97</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="6">
         <f t="shared" si="0"/>
         <v>25.558083</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4">
         <v>1.1003000000000001</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="5">
         <v>21.1</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E27" s="6">
         <f t="shared" si="0"/>
         <v>23.216330000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C28" s="4">
         <v>3</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="5">
         <v>47.63</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E28" s="6">
         <f t="shared" si="0"/>
         <v>142.89000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="7">
+      <c r="B29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4">
         <v>0.31390000000000001</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D29" s="5">
         <v>378.17</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E29" s="6">
         <f t="shared" si="0"/>
         <v>118.70756300000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C30" s="4">
         <v>1.4031</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D30" s="5">
         <v>91.06</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E30" s="6">
         <f t="shared" si="0"/>
         <v>127.76628600000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C31" s="4">
         <v>0.5927</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D31" s="5">
         <v>138.33000000000001</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="6">
         <f t="shared" si="0"/>
         <v>81.988191000000015</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C32" s="4">
         <v>0.1462</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D32" s="5">
         <v>170.99</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E32" s="6">
         <f t="shared" si="0"/>
         <v>24.998737999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="7">
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4">
         <v>0.21099999999999999</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="5">
         <v>179.99</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E33" s="6">
         <f t="shared" si="0"/>
         <v>37.977890000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C34" s="4">
         <v>0.1406</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D34" s="5">
         <v>258.81</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E34" s="6">
         <f t="shared" si="0"/>
         <v>36.388686</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="7">
+      <c r="B35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4">
         <v>0.41389999999999999</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="5">
         <v>378.17</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E35" s="6">
         <f t="shared" si="0"/>
         <v>156.524563</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C36" s="4">
         <v>0.03</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D36" s="5">
         <v>1552.96</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E36" s="6">
         <f t="shared" si="0"/>
         <v>46.588799999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="7">
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4">
         <v>1.37</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D37" s="5">
         <v>143.34</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E37" s="6">
         <f t="shared" si="0"/>
         <v>196.37580000000003</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>